--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/42/word_level_predictions_42.xlsx
@@ -1594,106 +1594,106 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>SD card speed low Change card .</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>SD card speed low Change card .</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G175" t="b">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G176" t="b">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11006,262 +11006,262 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="I204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
+      <c r="I205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
+      <c r="I207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11318,106 +11318,106 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" t="n">
+      <c r="D210" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="D211" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -12641,289 +12641,289 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>20</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B236" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/42/word_level_predictions_42.xlsx
@@ -1594,106 +1594,106 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>SD card speed low Change card .</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" t="n">
         <v>4</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>SD card speed low Change card .</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" t="n">
         <v>5</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G175" t="b">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G176" t="b">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -11006,262 +11006,262 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>18</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>6</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>18</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>7</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>18</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" t="n">
         <v>8</v>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>18</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" t="n">
         <v>9</v>
       </c>
-      <c r="E207" s="2" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>18</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" t="n">
         <v>10</v>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11318,106 +11318,106 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>19</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
+      <c r="D210" t="n">
         <v>0</v>
       </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>19</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -12641,289 +12641,289 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
